--- a/data/output/manager_summary.xlsx
+++ b/data/output/manager_summary.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>broName</t>
-  </si>
-  <si>
-    <t>clientCode</t>
-  </si>
-  <si>
-    <t>clientName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>bro</t>
+  </si>
+  <si>
+    <t>totalClients</t>
   </si>
   <si>
     <t>assetsUnderCustody</t>
@@ -31,28 +28,13 @@
     <t>currentMarketValue</t>
   </si>
   <si>
-    <t>realisedProfitLoss</t>
-  </si>
-  <si>
     <t>unrealisedProfitLoss</t>
   </si>
   <si>
+    <t>totalLedgerBalance</t>
+  </si>
+  <si>
     <t xml:space="preserve">N/A </t>
-  </si>
-  <si>
-    <t>236901</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>LAXMAN LIMBU SUBBA</t>
-  </si>
-  <si>
-    <t>TANK PRASAD GAUTAM</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -410,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,54 +417,25 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>34219570.14</v>
       </c>
       <c r="D2">
-        <v>15321780.74</v>
+        <v>32371096.8</v>
       </c>
       <c r="E2">
-        <v>14845120.2</v>
+        <v>-2097612.33</v>
       </c>
       <c r="F2">
-        <v>-562921.24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>18897789.4</v>
-      </c>
-      <c r="E3">
-        <v>16732719.2</v>
-      </c>
-      <c r="F3">
-        <v>-2384756.68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+        <v>517639.77</v>
       </c>
     </row>
   </sheetData>
